--- a/Input/测试结果.xlsx
+++ b/Input/测试结果.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xxn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\SubgraphMatch\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5907A3-9642-45D5-98C2-894F3ABD8E59}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E843FE5-26AA-4AD0-BBA7-50C0B8F33202}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5B20857-EFCD-431E-B0E0-86E598F6CBF0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>图节点数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,21 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>求和</t>
-  </si>
-  <si>
-    <t>平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>链状深度4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +121,18 @@
   </si>
   <si>
     <t>链状深度2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：该对比结果使用的是深度为2的树状子图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：该对比结果使用的是深度为5的链状子图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：该对比使用的是出度为100，链状子图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4064,8 +4061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A7ADBF-54C9-4E48-85E6-D9A61ED7E053}">
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4073,6 +4070,7 @@
     <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.77734375" customWidth="1"/>
     <col min="9" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="55.2" x14ac:dyDescent="0.25">
@@ -4140,7 +4138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4167,6 +4165,9 @@
       </c>
       <c r="P5">
         <v>528</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -4560,7 +4561,7 @@
         <v>7023</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -4593,6 +4594,9 @@
       </c>
       <c r="P20">
         <v>7423</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -4933,7 +4937,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>1696</v>
       </c>
@@ -4941,7 +4945,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>1194</v>
       </c>
@@ -4949,7 +4953,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -4975,7 +4979,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>1387</v>
       </c>
@@ -4983,7 +4987,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>1073</v>
       </c>
@@ -5015,7 +5019,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -5056,7 +5060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>1137</v>
       </c>
@@ -5088,7 +5092,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D40">
         <v>1778</v>
       </c>
@@ -5128,9 +5132,9 @@
         <v>68.666666666666671</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D41">
         <v>986</v>
@@ -5139,7 +5143,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>943</v>
       </c>
@@ -5147,7 +5151,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>938</v>
       </c>
@@ -5160,10 +5164,13 @@
       <c r="J43" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="T43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D44">
         <v>916</v>
@@ -5181,7 +5188,7 @@
         <v>68.666666666666671</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>916</v>
       </c>
@@ -5198,7 +5205,7 @@
         <v>305.66666666666669</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>818</v>
       </c>
@@ -5215,9 +5222,9 @@
         <v>1367.3333333333333</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D47">
         <v>691</v>
@@ -5235,7 +5242,7 @@
         <v>6597.666666666667</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D48">
         <v>769</v>
       </c>
